--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>/iam/task-detail</t>
+          <t>/asgard/task-detail</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>/iam/execution-record</t>
+          <t>/asgard/execution-record</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>/iam/executable-program</t>
+          <t>/asgard/executable-program</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>/iam/saga</t>
+          <t>/asgard/saga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>/iam/saga-instance</t>
+          <t>/asgard/saga-instance</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>/iam/saga</t>
+          <t>/asgard/saga</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>/iam/saga-instance</t>
+          <t>/asgard/saga-instance</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>/iam/saga-instance</t>
+          <t>/asgard/saga-instance</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>/iam/task-detail</t>
+          <t>/asgard/task-detail</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>/iam/execution-record</t>
+          <t>/asgard/execution-record</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>/iam/executable-program</t>
+          <t>/asgard/executable-program</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>/iam/saga-instance</t>
+          <t>/asgard/saga-instance</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>/iam/task-detail</t>
+          <t>/asgard/task-detail</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>/iam/execution-record</t>
+          <t>/asgard/execution-record</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>/iam/executable-program</t>
+          <t>/asgard/executable-program</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="D7:N22"/>
+  <dimension ref="D7:N20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="H10" activeCellId="0" pane="topLeft" sqref="H10"/>
@@ -597,7 +597,7 @@
     <row r="11">
       <c r="F11" t="inlineStr">
         <is>
-          <t>choerodon.route.global-transaction.saga</t>
+          <t>choerodon.route.statistics.saga</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="12">
       <c r="F12" t="inlineStr">
         <is>
-          <t>choerodon.route.global-transaction.saga-instance</t>
+          <t>choerodon.route.statistics.saga-instance</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -679,12 +679,12 @@
     <row r="13">
       <c r="F13" t="inlineStr">
         <is>
-          <t>choerodon.route.statistics.saga</t>
+          <t>choerodon.route.rentsetting.saga-instance-organization</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>/asgard/saga</t>
+          <t>/asgard/saga-instance</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -694,12 +694,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>事务定义路由</t>
+          <t>组织事务实例路由</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -720,12 +720,12 @@
     <row r="14">
       <c r="F14" t="inlineStr">
         <is>
-          <t>choerodon.route.statistics.saga-instance</t>
+          <t>choerodon.route.task-dispatch-organization.task-detail-organization</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>/asgard/saga-instance</t>
+          <t>/asgard/task-detail</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>事务实例路由</t>
+          <t>任务明细路由</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -761,12 +761,12 @@
     <row r="15">
       <c r="F15" t="inlineStr">
         <is>
-          <t>choerodon.route.rentsetting.saga-instance-organization</t>
+          <t>choerodon.route.task-dispatch-organization.execution-record-organization</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>/asgard/saga-instance</t>
+          <t>/asgard/execution-record</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>组织事务实例路由</t>
+          <t>执行记录路由</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -802,12 +802,12 @@
     <row r="16">
       <c r="F16" t="inlineStr">
         <is>
-          <t>choerodon.route.task-dispatch-organization.task-detail-organization</t>
+          <t>choerodon.route.task-dispatch-organization.task-classname-organization</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>/asgard/task-detail</t>
+          <t>/asgard/executable-program</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>任务明细路由</t>
+          <t>可执行程序路由</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -843,12 +843,12 @@
     <row r="17">
       <c r="F17" t="inlineStr">
         <is>
-          <t>choerodon.route.task-dispatch-organization.execution-record-organization</t>
+          <t>choerodon.route.prosetting.saga-instance-project</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>/asgard/execution-record</t>
+          <t>/asgard/saga-instance</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -858,12 +858,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>project</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>执行记录路由</t>
+          <t>项目事务实例路由</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -884,12 +884,12 @@
     <row r="18">
       <c r="F18" t="inlineStr">
         <is>
-          <t>choerodon.route.task-dispatch-organization.task-classname-organization</t>
+          <t>choerodon.route.task-dispatch-project.task-detail-project</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>/asgard/executable-program</t>
+          <t>/asgard/task-detail</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>project</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>可执行程序路由</t>
+          <t>任务明细路由</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -925,12 +925,12 @@
     <row r="19">
       <c r="F19" t="inlineStr">
         <is>
-          <t>choerodon.route.prosetting.saga-instance-project</t>
+          <t>choerodon.route.task-dispatch-project.execution-record-project</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>/asgard/saga-instance</t>
+          <t>/asgard/execution-record</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>项目事务实例路由</t>
+          <t>执行记录路由</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -966,12 +966,12 @@
     <row r="20">
       <c r="F20" t="inlineStr">
         <is>
-          <t>choerodon.route.task-dispatch-project.task-detail-project</t>
+          <t>choerodon.route.task-dispatch-project.task-classname-project</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>/asgard/task-detail</t>
+          <t>/asgard/executable-program</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>任务明细路由</t>
+          <t>可执行程序路由</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1001,88 +1001,6 @@
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>choerodon.route.task-dispatch-project.execution-record-project</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>/asgard/execution-record</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>asgard-service</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>执行记录路由</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>choerodon.route.task-dispatch-project.task-classname-project</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>/asgard/executable-program</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>asgard-service</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>可执行程序路由</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1107,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="D7:O29"/>
+  <dimension ref="D7:O26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="O8" activeCellId="0" pane="topLeft" sqref="O8"/>
@@ -1389,17 +1307,17 @@
     <row r="12">
       <c r="F12" t="inlineStr">
         <is>
-          <t>choerodon.code.global-transaction</t>
+          <t>choerodon.code.statistics</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>全局事务</t>
+          <t>平台统计</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Global Transaction</t>
+          <t>Site Statistics</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1424,17 +1342,17 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>developer_board</t>
+          <t>bar_chart</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" t="inlineStr">
         <is>
-          <t>choerodon.code.global-transaction.saga</t>
+          <t>choerodon.code.statistics.saga</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1449,7 +1367,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>choerodon.route.global-transaction.saga</t>
+          <t>choerodon.route.statistics.saga</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1459,7 +1377,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>choerodon.code.global-transaction</t>
+          <t>choerodon.code.statistics</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1484,7 +1402,7 @@
     <row r="14">
       <c r="F14" t="inlineStr">
         <is>
-          <t>choerodon.code.global-transaction.saga-instance</t>
+          <t>choerodon.code.statistics.saga-instance</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1499,7 +1417,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>choerodon.route.global-transaction.saga-instance</t>
+          <t>choerodon.route.statistics.saga-instance</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1509,7 +1427,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>choerodon.code.global-transaction</t>
+          <t>choerodon.code.statistics</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1534,17 +1452,17 @@
     <row r="15">
       <c r="F15" t="inlineStr">
         <is>
-          <t>choerodon.code.statistics</t>
+          <t>choerodon.code.rentsetting</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>平台统计</t>
+          <t>组织设置</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Site Statistics</t>
+          <t>Organization settings</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1554,12 +1472,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>choerodon.code.top.site</t>
+          <t>choerodon.code.top.organization</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1569,32 +1487,32 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>bar_chart</t>
+          <t>IAM</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" t="inlineStr">
         <is>
-          <t>choerodon.code.statistics.saga</t>
+          <t>choerodon.code.rentsetting.saga-instance-organization</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>事务定义</t>
+          <t>组织事务实例</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Saga</t>
+          <t>Saga Instance</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>choerodon.route.statistics.saga</t>
+          <t>choerodon.route.rentsetting.saga-instance-organization</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1604,12 +1522,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>choerodon.code.statistics</t>
+          <t>choerodon.code.rentsetting</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1619,32 +1537,27 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>saga_define</t>
+          <t>instance_outline</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" t="inlineStr">
         <is>
-          <t>choerodon.code.statistics.saga-instance</t>
+          <t>choerodon.code.task-dispatch-organization</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>事务实例</t>
+          <t>任务调度</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Saga Instance</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>choerodon.route.statistics.saga-instance</t>
+          <t>Task Dispatch</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1654,42 +1567,47 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>choerodon.code.statistics</t>
+          <t>choerodon.code.top.organization</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>menu_item</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>instance_outline</t>
+          <t>task_schedule</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" t="inlineStr">
         <is>
-          <t>choerodon.code.rentsetting</t>
+          <t>choerodon.code.task-dispatch-organization.task-detail-organization</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>组织设置</t>
+          <t>任务明细</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Organization settings</t>
+          <t>Task Detail</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>choerodon.route.task-dispatch-organization.task-detail-organization</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1699,7 +1617,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>choerodon.code.top.organization</t>
+          <t>choerodon.code.task-dispatch-organization</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1709,37 +1627,37 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>menu_item</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" t="inlineStr">
         <is>
-          <t>choerodon.code.rentsetting.saga-instance-organization</t>
+          <t>choerodon.code.task-dispatch-organization.execution-record-organization</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>组织事务实例</t>
+          <t>执行记录</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Saga Instance</t>
+          <t>Execution Record</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>choerodon.route.rentsetting.saga-instance-organization</t>
+          <t>choerodon.route.task-dispatch-organization.execution-record-organization</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1749,7 +1667,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>choerodon.code.rentsetting</t>
+          <t>choerodon.code.task-dispatch-organization</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1764,39 +1682,44 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>instance_outline</t>
+          <t>work_log</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" t="inlineStr">
         <is>
+          <t>choerodon.code.task-dispatch-organization.task-classname-organization</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>可执行程序</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Executable Program</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>choerodon.route.task-dispatch-organization.task-classname-organization</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>asgard-service</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>choerodon.code.task-dispatch-organization</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>任务调度</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Task Dispatch</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>asgard-service</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>choerodon.code.top.organization</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>organization</t>
@@ -1804,37 +1727,32 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>menu_item</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>task_schedule</t>
+          <t>classname</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization.task-detail-organization</t>
+          <t>choerodon.code.prosetting</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>任务明细</t>
+          <t>项目设置</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Task Detail</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>choerodon.route.task-dispatch-organization.task-detail-organization</t>
+          <t>Project Manage</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1844,47 +1762,47 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization</t>
+          <t>choerodon.code.top.project</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>project</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>menu_item</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>IAM</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization.execution-record-organization</t>
+          <t>choerodon.code.prosetting.saga-instance-project</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>执行记录</t>
+          <t>项目事务实例</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Execution Record</t>
+          <t>Saga Instance</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>choerodon.route.task-dispatch-organization.execution-record-organization</t>
+          <t>choerodon.route.prosetting.saga-instance-project</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1894,12 +1812,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization</t>
+          <t>choerodon.code.prosetting</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>project</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1909,32 +1827,27 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>work_log</t>
+          <t>instance_outline</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization.task-classname-organization</t>
+          <t>choerodon.code.task-dispatch-project</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>可执行程序</t>
+          <t>任务调度</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Executable Program</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>choerodon.route.task-dispatch-organization.task-classname-organization</t>
+          <t>Task Dispatch</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1944,42 +1857,47 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization</t>
+          <t>choerodon.code.top.project</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>project</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>menu_item</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>classname</t>
+          <t>task_schedule</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting</t>
+          <t>choerodon.code.task-dispatch-project.task-detail-project</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>项目设置</t>
+          <t>任务明细</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Project Manage</t>
+          <t>Task Detail</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>choerodon.route.task-dispatch-project.task-detail-project</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1989,7 +1907,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>choerodon.code.top.project</t>
+          <t>choerodon.code.task-dispatch-project</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1999,37 +1917,37 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>menu_item</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting.saga-instance-project</t>
+          <t>choerodon.code.task-dispatch-project.execution-record-project</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>项目事务实例</t>
+          <t>执行记录</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Saga Instance</t>
+          <t>Execution Record</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>choerodon.route.prosetting.saga-instance-project</t>
+          <t>choerodon.route.task-dispatch-project.execution-record-project</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2039,7 +1957,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting</t>
+          <t>choerodon.code.task-dispatch-project</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2054,39 +1972,44 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>instance_outline</t>
+          <t>work_log</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" t="inlineStr">
         <is>
+          <t>choerodon.code.task-dispatch-project.task-classname-project</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>可执行程序</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Executable Program</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>choerodon.route.task-dispatch-project.task-classname-project</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>asgard-service</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>choerodon.code.task-dispatch-project</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>任务调度</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Task Dispatch</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>asgard-service</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>choerodon.code.top.project</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>project</t>
@@ -2094,165 +2017,15 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>menu_item</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>task_schedule</t>
+          <t>classname</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>choerodon.code.task-dispatch-project.task-detail-project</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>任务明细</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Task Detail</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>choerodon.route.task-dispatch-project.task-detail-project</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>asgard-service</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>choerodon.code.task-dispatch-project</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>menu_item</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>choerodon.code.task-dispatch-project.execution-record-project</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>执行记录</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Execution Record</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>choerodon.route.task-dispatch-project.execution-record-project</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>asgard-service</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>choerodon.code.task-dispatch-project</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>menu_item</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>work_log</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>choerodon.code.task-dispatch-project.task-classname-project</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>可执行程序</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Executable Program</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>choerodon.route.task-dispatch-project.task-classname-project</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>asgard-service</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>choerodon.code.task-dispatch-project</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>menu_item</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>classname</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2277,7 +2050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="D7:G54"/>
+  <dimension ref="D7:G48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="E25" activeCellId="0" pane="topLeft" sqref="E25"/>
@@ -2426,7 +2199,7 @@
     <row r="17">
       <c r="F17" t="inlineStr">
         <is>
-          <t>choerodon.code.global-transaction.saga</t>
+          <t>choerodon.code.statistics.saga</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2438,7 +2211,7 @@
     <row r="18">
       <c r="F18" t="inlineStr">
         <is>
-          <t>choerodon.code.global-transaction.saga</t>
+          <t>choerodon.code.statistics.saga</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2450,7 +2223,7 @@
     <row r="19">
       <c r="F19" t="inlineStr">
         <is>
-          <t>choerodon.code.global-transaction.saga-instance</t>
+          <t>choerodon.code.statistics.saga-instance</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2462,7 +2235,7 @@
     <row r="20">
       <c r="F20" t="inlineStr">
         <is>
-          <t>choerodon.code.global-transaction.saga-instance</t>
+          <t>choerodon.code.statistics.saga-instance</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2474,7 +2247,7 @@
     <row r="21">
       <c r="F21" t="inlineStr">
         <is>
-          <t>choerodon.code.global-transaction.saga-instance</t>
+          <t>choerodon.code.statistics.saga-instance</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2486,7 +2259,7 @@
     <row r="22">
       <c r="F22" t="inlineStr">
         <is>
-          <t>choerodon.code.global-transaction.saga-instance</t>
+          <t>choerodon.code.statistics.saga-instance</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2498,382 +2271,310 @@
     <row r="23">
       <c r="F23" t="inlineStr">
         <is>
-          <t>choerodon.code.statistics.saga</t>
+          <t>choerodon.code.rentsetting.saga-instance-organization</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>asgard-service.saga.pagingQuery</t>
+          <t>asgard-service.saga-instance-org.pagingQuery</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="F24" t="inlineStr">
         <is>
-          <t>choerodon.code.statistics.saga</t>
+          <t>choerodon.code.rentsetting.saga-instance-organization</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>asgard-service.saga.query</t>
+          <t>asgard-service.saga-instance-org.statistics</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="F25" t="inlineStr">
         <is>
-          <t>choerodon.code.statistics.saga-instance</t>
+          <t>choerodon.code.rentsetting.saga-instance-organization</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>asgard-service.saga-instance.pagingQuery</t>
+          <t>asgard-service.saga-instance-org.query</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="F26" t="inlineStr">
         <is>
-          <t>choerodon.code.statistics.saga-instance</t>
+          <t>choerodon.code.rentsetting.saga-instance-organization</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>asgard-service.saga-instance.query</t>
+          <t>asgard-service.saga-instance-org.queryDetails</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="F27" t="inlineStr">
         <is>
-          <t>choerodon.code.statistics.saga-instance</t>
+          <t>choerodon.code.task-dispatch-organization.task-detail-organization</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>asgard-service.saga-instance.statistics</t>
+          <t>asgard-service.schedule-task-org.pagingQuery</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="F28" t="inlineStr">
         <is>
-          <t>choerodon.code.statistics.saga-instance</t>
+          <t>choerodon.code.task-dispatch-organization.task-detail-organization</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>asgard-service.saga-instance.queryDetails</t>
+          <t>asgard-service.schedule-task-org.create</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="F29" t="inlineStr">
         <is>
-          <t>choerodon.code.rentsetting.saga-instance-organization</t>
+          <t>choerodon.code.task-dispatch-organization.task-detail-organization</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>asgard-service.saga-instance-org.pagingQuery</t>
+          <t>asgard-service.schedule-task-org.enable</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="F30" t="inlineStr">
         <is>
-          <t>choerodon.code.rentsetting.saga-instance-organization</t>
+          <t>choerodon.code.task-dispatch-organization.task-detail-organization</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>asgard-service.saga-instance-org.statistics</t>
+          <t>asgard-service.schedule-task-org.disable</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="F31" t="inlineStr">
         <is>
-          <t>choerodon.code.rentsetting.saga-instance-organization</t>
+          <t>choerodon.code.task-dispatch-organization.task-detail-organization</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>asgard-service.saga-instance-org.query</t>
+          <t>asgard-service.schedule-task-org.delete</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="F32" t="inlineStr">
         <is>
-          <t>choerodon.code.rentsetting.saga-instance-organization</t>
+          <t>choerodon.code.task-dispatch-organization.task-detail-organization</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>asgard-service.saga-instance-org.queryDetails</t>
+          <t>asgard-service.schedule-task-org.getTaskDetail</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="F33" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization.task-detail-organization</t>
+          <t>choerodon.code.task-dispatch-organization.execution-record-organization</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>asgard-service.schedule-task-org.pagingQuery</t>
+          <t>asgard-service.schedule-task-instance-org.pagingQuery</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization.task-detail-organization</t>
+          <t>choerodon.code.task-dispatch-organization.task-classname-organization</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>asgard-service.schedule-task-org.create</t>
+          <t>asgard-service.schedule-method-org.pagingQuery</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization.task-detail-organization</t>
+          <t>choerodon.code.task-dispatch-organization.task-classname-organization</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>asgard-service.schedule-task-org.enable</t>
+          <t>asgard-service.schedule-method-org.getParams</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization.task-detail-organization</t>
+          <t>choerodon.code.prosetting.saga-instance-project</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>asgard-service.schedule-task-org.disable</t>
+          <t>asgard-service.saga-instance-project.pagingQuery</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization.task-detail-organization</t>
+          <t>choerodon.code.prosetting.saga-instance-project</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>asgard-service.schedule-task-org.delete</t>
+          <t>asgard-service.saga-instance-project.statistics</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization.task-detail-organization</t>
+          <t>choerodon.code.prosetting.saga-instance-project</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>asgard-service.schedule-task-org.getTaskDetail</t>
+          <t>asgard-service.saga-instance-project.query</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization.execution-record-organization</t>
+          <t>choerodon.code.prosetting.saga-instance-project</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>asgard-service.schedule-task-instance-org.pagingQuery</t>
+          <t>asgard-service.saga-instance-project.queryDetails</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization.task-classname-organization</t>
+          <t>choerodon.code.task-dispatch-project.task-detail-project</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>asgard-service.schedule-method-org.pagingQuery</t>
+          <t>asgard-service.schedule-task-project.pagingQuery</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-organization.task-classname-organization</t>
+          <t>choerodon.code.task-dispatch-project.task-detail-project</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>asgard-service.schedule-method-org.getParams</t>
+          <t>asgard-service.schedule-task-project.create</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting.saga-instance-project</t>
+          <t>choerodon.code.task-dispatch-project.task-detail-project</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>asgard-service.saga-instance-project.pagingQuery</t>
+          <t>asgard-service.schedule-task-project.enable</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting.saga-instance-project</t>
+          <t>choerodon.code.task-dispatch-project.task-detail-project</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>asgard-service.saga-instance-project.statistics</t>
+          <t>asgard-service.schedule-task-project.disable</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting.saga-instance-project</t>
+          <t>choerodon.code.task-dispatch-project.task-detail-project</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>asgard-service.saga-instance-project.query</t>
+          <t>asgard-service.schedule-task-project.delete</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting.saga-instance-project</t>
+          <t>choerodon.code.task-dispatch-project.task-detail-project</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>asgard-service.saga-instance-project.queryDetails</t>
+          <t>asgard-service.schedule-task-project.getTaskDetail</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-project.task-detail-project</t>
+          <t>choerodon.code.task-dispatch-project.execution-record-project</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>asgard-service.schedule-task-project.pagingQuery</t>
+          <t>asgard-service.schedule-task-instance-project.pagingQuery</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-project.task-detail-project</t>
+          <t>choerodon.code.task-dispatch-project.task-classname-project</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>asgard-service.schedule-task-project.create</t>
+          <t>asgard-service.schedule-method-project.pagingQuery</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="F48" t="inlineStr">
         <is>
-          <t>choerodon.code.task-dispatch-project.task-detail-project</t>
+          <t>choerodon.code.task-dispatch-project.task-classname-project</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
-        <is>
-          <t>asgard-service.schedule-task-project.enable</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>choerodon.code.task-dispatch-project.task-detail-project</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>asgard-service.schedule-task-project.disable</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>choerodon.code.task-dispatch-project.task-detail-project</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>asgard-service.schedule-task-project.delete</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>choerodon.code.task-dispatch-project.task-detail-project</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>asgard-service.schedule-task-project.getTaskDetail</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>choerodon.code.task-dispatch-project.execution-record-project</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>asgard-service.schedule-task-instance-project.pagingQuery</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>choerodon.code.task-dispatch-project.task-classname-project</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>asgard-service.schedule-method-project.pagingQuery</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>choerodon.code.task-dispatch-project.task-classname-project</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
         <is>
           <t>asgard-service.schedule-method-project.getParams</t>
         </is>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="500" activeTab="1"/>
+    <workbookView windowHeight="14540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -455,6 +456,24 @@
   </si>
   <si>
     <t>asgard-service.schedule-method-project.getParams</t>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>organization_project</t>
+  </si>
+  <si>
+    <t>AGILE</t>
   </si>
 </sst>
 </file>
@@ -474,30 +493,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,25 +522,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -539,8 +542,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,9 +558,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,6 +568,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,7 +589,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,42 +642,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -636,6 +655,114 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -651,31 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +796,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,43 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,79 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,17 +852,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,11 +879,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,25 +920,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -919,152 +949,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,54 +1093,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1415,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:N20"/>
   <sheetViews>
@@ -1423,22 +1442,22 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
-    <col min="4" max="4" width="18.9619047619048" customWidth="1"/>
-    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
-    <col min="6" max="6" width="13.4857142857143" customWidth="1"/>
-    <col min="7" max="7" width="15.0380952380952" customWidth="1"/>
+    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
+    <col min="4" max="4" width="18.9632352941176" customWidth="1"/>
+    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
+    <col min="6" max="6" width="13.4852941176471" customWidth="1"/>
+    <col min="7" max="7" width="15.0367647058824" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.9619047619048" customWidth="1"/>
-    <col min="10" max="10" width="14.1904761904762" customWidth="1"/>
-    <col min="11" max="11" width="18.9619047619048" customWidth="1"/>
-    <col min="12" max="12" width="19.2571428571429" customWidth="1"/>
-    <col min="13" max="13" width="18.7047619047619" customWidth="1"/>
-    <col min="14" max="14" width="19.3904761904762" customWidth="1"/>
-    <col min="15" max="15" width="18.9619047619048" customWidth="1"/>
-    <col min="16" max="1025" width="11.6380952380952" customWidth="1"/>
+    <col min="9" max="9" width="18.9632352941176" customWidth="1"/>
+    <col min="10" max="10" width="14.1911764705882" customWidth="1"/>
+    <col min="11" max="11" width="18.9632352941176" customWidth="1"/>
+    <col min="12" max="12" width="19.2573529411765" customWidth="1"/>
+    <col min="13" max="13" width="18.7058823529412" customWidth="1"/>
+    <col min="14" max="14" width="19.3897058823529" customWidth="1"/>
+    <col min="15" max="15" width="18.9632352941176" customWidth="1"/>
+    <col min="16" max="1025" width="11.6397058823529" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:14">
@@ -1864,27 +1883,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
-    <col min="4" max="4" width="15.1904761904762" customWidth="1"/>
-    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
-    <col min="6" max="6" width="12.7714285714286" customWidth="1"/>
-    <col min="7" max="7" width="16.8857142857143" customWidth="1"/>
-    <col min="8" max="8" width="13.9142857142857" customWidth="1"/>
-    <col min="9" max="9" width="27.1238095238095" customWidth="1"/>
-    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
-    <col min="11" max="11" width="16.5809523809524" customWidth="1"/>
-    <col min="12" max="12" width="19.2571428571429" customWidth="1"/>
-    <col min="13" max="1025" width="11.6380952380952" customWidth="1"/>
+    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
+    <col min="4" max="4" width="15.1911764705882" customWidth="1"/>
+    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
+    <col min="6" max="6" width="41.5367647058824" customWidth="1"/>
+    <col min="7" max="7" width="16.8823529411765" customWidth="1"/>
+    <col min="8" max="8" width="13.9117647058824" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="10" max="10" width="18.5514705882353" customWidth="1"/>
+    <col min="11" max="11" width="16.5808823529412" customWidth="1"/>
+    <col min="12" max="12" width="19.2573529411765" customWidth="1"/>
+    <col min="13" max="1025" width="11.6397058823529" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:15">
@@ -2526,7 +2545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:G48"/>
   <sheetViews>
@@ -2534,14 +2553,14 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
-    <col min="4" max="4" width="23.752380952381" customWidth="1"/>
-    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
+    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.9619047619048" customWidth="1"/>
-    <col min="8" max="1025" width="11.6380952380952" customWidth="1"/>
+    <col min="7" max="7" width="18.9632352941176" customWidth="1"/>
+    <col min="8" max="1025" width="11.6397058823529" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:7">
@@ -2894,4 +2913,243 @@
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="D7:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="4" max="4" width="22.9117647058824" customWidth="1"/>
+    <col min="5" max="5" width="18.9926470588235" customWidth="1"/>
+    <col min="6" max="6" width="20.4632352941176" customWidth="1"/>
+    <col min="7" max="7" width="56.8602941176471" customWidth="1"/>
+    <col min="8" max="8" width="35.2867647058824" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8">
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="6:8">
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8">
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8">
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8">
+      <c r="F12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8">
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8">
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="14540" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="17080" windowHeight="14540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
     <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -507,32 +507,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -547,6 +527,13 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,26 +552,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -603,9 +612,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,35 +634,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -655,6 +655,90 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -664,37 +748,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,13 +766,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,85 +808,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,31 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,42 +865,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,6 +896,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,151 +936,151 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1887,8 +1887,8 @@
   <sheetPr/>
   <dimension ref="D7:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F26"/>
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="K19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1970,7 +1970,7 @@
         <v>55</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="6:15">
@@ -2002,7 +2002,7 @@
         <v>60</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="6:15">
@@ -2034,7 +2034,7 @@
         <v>64</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="6:15">
@@ -2066,7 +2066,7 @@
         <v>68</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="6:15">
@@ -2095,7 +2095,7 @@
         <v>72</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="6:15">
@@ -2127,7 +2127,7 @@
         <v>76</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="6:15">
@@ -2159,7 +2159,7 @@
         <v>80</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="6:15">
@@ -2188,7 +2188,7 @@
         <v>85</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="6:15">
@@ -2220,7 +2220,7 @@
         <v>80</v>
       </c>
       <c r="O16">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="6:15">
@@ -2249,7 +2249,7 @@
         <v>55</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="6:15">
@@ -2281,7 +2281,7 @@
         <v>60</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="6:15">
@@ -2313,7 +2313,7 @@
         <v>64</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="6:15">
@@ -2345,7 +2345,7 @@
         <v>68</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="6:15">
@@ -2374,7 +2374,7 @@
         <v>85</v>
       </c>
       <c r="O21">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="6:15">
@@ -2406,7 +2406,7 @@
         <v>80</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="6:15">
@@ -2435,7 +2435,7 @@
         <v>55</v>
       </c>
       <c r="O23">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="6:15">
@@ -2467,7 +2467,7 @@
         <v>60</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="6:15">
@@ -2499,7 +2499,7 @@
         <v>64</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="6:15">
@@ -2531,7 +2531,7 @@
         <v>68</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2920,8 +2920,8 @@
   <sheetPr/>
   <dimension ref="D7:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C20" sqref="$A20:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="17080" windowHeight="14540" tabRatio="500" activeTab="1"/>
+    <workbookView windowHeight="14540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
     <t>ICON</t>
   </si>
   <si>
-    <t>@SORT</t>
+    <t>SORT</t>
   </si>
   <si>
     <t>choerodon.code.task-dispatch</t>
@@ -515,6 +515,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -522,24 +535,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -560,27 +557,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -594,6 +570,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -628,15 +612,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,13 +658,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +682,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,19 +814,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,133 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,6 +886,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -909,17 +935,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -934,153 +949,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1888,7 +1888,7 @@
   <dimension ref="D7:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="K19" sqref="$A19:$XFD19"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="14540" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12660" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="168">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -335,6 +335,24 @@
     <t>#PERMISSION_CODE</t>
   </si>
   <si>
+    <t>iam-service.role-member.pagingQueryUsersWithSiteLevelRolesWithDeveloper</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-task-instance-site.pagingQueryByTaskId</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-method-site.getParams</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-task-site.check</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-task-site.cron</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-method-site.getServices</t>
+  </si>
+  <si>
     <t>asgard-service.schedule-task-site.pagingQuery</t>
   </si>
   <si>
@@ -359,7 +377,7 @@
     <t>asgard-service.schedule-method-site.pagingQuery</t>
   </si>
   <si>
-    <t>asgard-service.schedule-method-site.getParams</t>
+    <t>asgard-service.schedule-method-site.delete</t>
   </si>
   <si>
     <t>asgard-service.saga.pagingQuery</t>
@@ -392,6 +410,24 @@
     <t>asgard-service.saga-instance-org.queryDetails</t>
   </si>
   <si>
+    <t>iam-service.role-member.pagingQueryUsersWithOrganizationLevelRoles</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-task-instance-org.pagingQueryByTaskId</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-method-org.getParams</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-task-org.check</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-task-org.cron</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-method-org.getServices</t>
+  </si>
+  <si>
     <t>asgard-service.schedule-task-org.pagingQuery</t>
   </si>
   <si>
@@ -416,9 +452,6 @@
     <t>asgard-service.schedule-method-org.pagingQuery</t>
   </si>
   <si>
-    <t>asgard-service.schedule-method-org.getParams</t>
-  </si>
-  <si>
     <t>asgard-service.saga-instance-project.pagingQuery</t>
   </si>
   <si>
@@ -431,6 +464,24 @@
     <t>asgard-service.saga-instance-project.queryDetails</t>
   </si>
   <si>
+    <t>iam-service.role-member.pagingQueryUsersWithProjectLevelRoles</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-task-instance-project.pagingQueryByTaskId</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-method-project.getParams</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-task-project.check</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-task-project.cron</t>
+  </si>
+  <si>
+    <t>asgard-service.schedule-method-project.getServices</t>
+  </si>
+  <si>
     <t>asgard-service.schedule-task-project.pagingQuery</t>
   </si>
   <si>
@@ -453,9 +504,6 @@
   </si>
   <si>
     <t>asgard-service.schedule-method-project.pagingQuery</t>
-  </si>
-  <si>
-    <t>asgard-service.schedule-method-project.getParams</t>
   </si>
   <si>
     <t>FD_CATEGORY_MENU</t>
@@ -507,17 +555,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,13 +565,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -557,16 +589,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -582,7 +622,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,25 +644,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -627,6 +661,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -634,9 +676,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,7 +706,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,13 +790,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,157 +880,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,15 +909,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -885,6 +924,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -896,17 +959,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,159 +980,155 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1434,7 +1482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:N20"/>
   <sheetViews>
@@ -1442,22 +1490,22 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
-    <col min="4" max="4" width="18.9632352941176" customWidth="1"/>
-    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
-    <col min="6" max="6" width="13.4852941176471" customWidth="1"/>
-    <col min="7" max="7" width="15.0367647058824" customWidth="1"/>
+    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
+    <col min="4" max="4" width="18.9619047619048" customWidth="1"/>
+    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
+    <col min="6" max="6" width="13.4857142857143" customWidth="1"/>
+    <col min="7" max="7" width="15.0380952380952" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.9632352941176" customWidth="1"/>
-    <col min="10" max="10" width="14.1911764705882" customWidth="1"/>
-    <col min="11" max="11" width="18.9632352941176" customWidth="1"/>
-    <col min="12" max="12" width="19.2573529411765" customWidth="1"/>
-    <col min="13" max="13" width="18.7058823529412" customWidth="1"/>
-    <col min="14" max="14" width="19.3897058823529" customWidth="1"/>
-    <col min="15" max="15" width="18.9632352941176" customWidth="1"/>
-    <col min="16" max="1025" width="11.6397058823529" customWidth="1"/>
+    <col min="9" max="9" width="18.9619047619048" customWidth="1"/>
+    <col min="10" max="10" width="14.1904761904762" customWidth="1"/>
+    <col min="11" max="11" width="18.9619047619048" customWidth="1"/>
+    <col min="12" max="12" width="19.2571428571429" customWidth="1"/>
+    <col min="13" max="13" width="18.7047619047619" customWidth="1"/>
+    <col min="14" max="14" width="19.3904761904762" customWidth="1"/>
+    <col min="15" max="15" width="18.9619047619048" customWidth="1"/>
+    <col min="16" max="1025" width="11.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:14">
@@ -1883,27 +1931,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
-    <col min="4" max="4" width="15.1911764705882" customWidth="1"/>
-    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
-    <col min="6" max="6" width="41.5367647058824" customWidth="1"/>
-    <col min="7" max="7" width="16.8823529411765" customWidth="1"/>
-    <col min="8" max="8" width="13.9117647058824" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
-    <col min="10" max="10" width="18.5514705882353" customWidth="1"/>
-    <col min="11" max="11" width="16.5808823529412" customWidth="1"/>
-    <col min="12" max="12" width="19.2573529411765" customWidth="1"/>
-    <col min="13" max="1025" width="11.6397058823529" customWidth="1"/>
+    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
+    <col min="4" max="4" width="15.1904761904762" customWidth="1"/>
+    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
+    <col min="6" max="6" width="41.5333333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.8857142857143" customWidth="1"/>
+    <col min="8" max="8" width="13.9142857142857" customWidth="1"/>
+    <col min="9" max="9" width="27.1238095238095" customWidth="1"/>
+    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
+    <col min="11" max="11" width="16.5809523809524" customWidth="1"/>
+    <col min="12" max="12" width="19.2571428571429" customWidth="1"/>
+    <col min="13" max="1025" width="11.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:15">
@@ -2545,22 +2593,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G48"/>
+  <dimension ref="D7:G67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.9632352941176" customWidth="1"/>
-    <col min="8" max="1025" width="11.6397058823529" customWidth="1"/>
+    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
+    <col min="4" max="4" width="23.752380952381" customWidth="1"/>
+    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
+    <col min="6" max="6" width="68.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="76.5714285714286" customWidth="1"/>
+    <col min="8" max="1025" width="11.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:7">
@@ -2577,57 +2625,69 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" spans="6:7">
+    <row r="8" ht="12.8" customHeight="1" spans="4:7">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" ht="12.8" customHeight="1" spans="4:7">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" t="s">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" ht="12.8" customHeight="1" spans="4:7">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" t="s">
         <v>56</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" ht="12.8" customHeight="1" spans="4:7">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" t="s">
         <v>56</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" ht="12.8" customHeight="1" spans="4:7">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" ht="12.8" customHeight="1" spans="4:7">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" t="s">
         <v>56</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" ht="12.8" customHeight="1" spans="6:7">
       <c r="F14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
         <v>111</v>
@@ -2635,7 +2695,7 @@
     </row>
     <row r="15" spans="6:7">
       <c r="F15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>112</v>
@@ -2643,7 +2703,7 @@
     </row>
     <row r="16" spans="6:7">
       <c r="F16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
         <v>113</v>
@@ -2651,7 +2711,7 @@
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
         <v>114</v>
@@ -2659,7 +2719,7 @@
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
         <v>115</v>
@@ -2667,7 +2727,7 @@
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
         <v>116</v>
@@ -2675,7 +2735,7 @@
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
         <v>117</v>
@@ -2683,7 +2743,7 @@
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
         <v>118</v>
@@ -2691,218 +2751,370 @@
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7">
+      <c r="F49" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7">
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7">
+      <c r="F51" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7">
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7">
+      <c r="F53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7">
+      <c r="F54" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7">
+      <c r="F55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7">
+      <c r="F56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7">
+      <c r="F57" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7">
+      <c r="F58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7">
+      <c r="F59" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7">
+      <c r="F60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7">
+      <c r="F61" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7">
+      <c r="F62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7">
+      <c r="F63" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7">
+      <c r="F64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7">
+      <c r="F65" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7">
+      <c r="F66" t="s">
         <v>101</v>
       </c>
-      <c r="G48" t="s">
-        <v>145</v>
+      <c r="G66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7">
+      <c r="F67" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2916,7 +3128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:H25"/>
   <sheetViews>
@@ -2924,35 +3136,35 @@
       <selection activeCell="C20" sqref="$A20:$XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.94285714285714" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="22.9117647058824" customWidth="1"/>
-    <col min="5" max="5" width="18.9926470588235" customWidth="1"/>
-    <col min="6" max="6" width="20.4632352941176" customWidth="1"/>
-    <col min="7" max="7" width="56.8602941176471" customWidth="1"/>
-    <col min="8" max="8" width="35.2867647058824" customWidth="1"/>
+    <col min="4" max="4" width="22.9142857142857" customWidth="1"/>
+    <col min="5" max="5" width="18.9904761904762" customWidth="1"/>
+    <col min="6" max="6" width="20.4666666666667" customWidth="1"/>
+    <col min="7" max="7" width="56.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="35.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G7" t="s">
         <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="6:8">
       <c r="F8" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G8" t="s">
         <v>81</v>
@@ -2963,7 +3175,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -2974,7 +3186,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
@@ -2985,7 +3197,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G11" t="s">
         <v>89</v>
@@ -2996,7 +3208,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G12" t="s">
         <v>90</v>
@@ -3007,7 +3219,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G13" t="s">
         <v>91</v>
@@ -3018,73 +3230,73 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
         <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
         <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
         <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
         <v>99</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
         <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
         <v>92</v>
@@ -3095,7 +3307,7 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
         <v>96</v>
@@ -3106,7 +3318,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -3117,7 +3329,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G23" t="s">
         <v>99</v>
@@ -3128,7 +3340,7 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
         <v>100</v>
@@ -3139,7 +3351,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G25" t="s">
         <v>101</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="19335" windowHeight="7515" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="176">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -396,6 +396,30 @@
   </si>
   <si>
     <t>asgard-service.saga-instance.queryDetails</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance.pagingQuery</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance.unlockByInstance</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance.retry</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance.unlockById</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance.pollBatch</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance.query</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance.forceFailed</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance.updateStatus</t>
   </si>
   <si>
     <t>asgard-service.saga-instance-org.pagingQuery</t>
@@ -542,7 +566,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,10 +579,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,8 +599,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -581,9 +622,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,38 +639,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,7 +662,36 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -660,38 +706,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,7 +730,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,19 +784,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,61 +808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,67 +820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,7 +838,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,8 +927,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,30 +948,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -959,6 +959,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,11 +991,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,146 +1001,161 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,54 +1165,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1487,16 +1511,16 @@
   <dimension ref="D7:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
     <col min="4" max="4" width="18.9619047619048" customWidth="1"/>
     <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
     <col min="6" max="6" width="13.4857142857143" customWidth="1"/>
-    <col min="7" max="7" width="15.0380952380952" customWidth="1"/>
+    <col min="7" max="7" width="28.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="18.9619047619048" customWidth="1"/>
     <col min="10" max="10" width="14.1904761904762" customWidth="1"/>
@@ -1936,10 +1960,10 @@
   <dimension ref="D7:O26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
     <col min="4" max="4" width="15.1904761904762" customWidth="1"/>
@@ -2595,13 +2619,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G67"/>
+  <dimension ref="D7:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
     <col min="4" max="4" width="23.752380952381" customWidth="1"/>
@@ -2815,7 +2839,7 @@
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
         <v>126</v>
@@ -2823,7 +2847,7 @@
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s">
         <v>127</v>
@@ -2831,7 +2855,7 @@
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
         <v>128</v>
@@ -2839,7 +2863,7 @@
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s">
         <v>129</v>
@@ -2847,7 +2871,7 @@
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
         <v>130</v>
@@ -2855,7 +2879,7 @@
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
         <v>131</v>
@@ -2863,7 +2887,7 @@
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
         <v>132</v>
@@ -2871,7 +2895,7 @@
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s">
         <v>133</v>
@@ -2879,7 +2903,7 @@
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
         <v>134</v>
@@ -2887,7 +2911,7 @@
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s">
         <v>135</v>
@@ -2895,7 +2919,7 @@
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s">
         <v>136</v>
@@ -2903,7 +2927,7 @@
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s">
         <v>137</v>
@@ -2943,7 +2967,7 @@
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s">
         <v>142</v>
@@ -2951,7 +2975,7 @@
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
         <v>143</v>
@@ -2959,79 +2983,79 @@
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G57" t="s">
         <v>152</v>
@@ -3039,7 +3063,7 @@
     </row>
     <row r="58" spans="6:7">
       <c r="F58" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G58" t="s">
         <v>153</v>
@@ -3047,7 +3071,7 @@
     </row>
     <row r="59" spans="6:7">
       <c r="F59" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G59" t="s">
         <v>154</v>
@@ -3055,7 +3079,7 @@
     </row>
     <row r="60" spans="6:7">
       <c r="F60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G60" t="s">
         <v>155</v>
@@ -3095,7 +3119,7 @@
     </row>
     <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G65" t="s">
         <v>160</v>
@@ -3103,7 +3127,7 @@
     </row>
     <row r="66" spans="6:7">
       <c r="F66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G66" t="s">
         <v>161</v>
@@ -3111,10 +3135,74 @@
     </row>
     <row r="67" spans="6:7">
       <c r="F67" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7">
+      <c r="F68" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7">
+      <c r="F69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7">
+      <c r="F70" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7">
+      <c r="F71" t="s">
+        <v>99</v>
+      </c>
+      <c r="G71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7">
+      <c r="F72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7">
+      <c r="F73" t="s">
+        <v>100</v>
+      </c>
+      <c r="G73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7">
+      <c r="F74" t="s">
         <v>101</v>
       </c>
-      <c r="G67" t="s">
-        <v>150</v>
+      <c r="G74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7">
+      <c r="F75" t="s">
+        <v>101</v>
+      </c>
+      <c r="G75" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3136,7 +3224,7 @@
       <selection activeCell="C20" sqref="$A20:$XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94285714285714" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.94285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="22.9142857142857" customWidth="1"/>
     <col min="5" max="5" width="18.9904761904762" customWidth="1"/>
@@ -3147,24 +3235,24 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
         <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="6:8">
       <c r="F8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G8" t="s">
         <v>81</v>
@@ -3175,7 +3263,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -3186,7 +3274,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
@@ -3197,7 +3285,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G11" t="s">
         <v>89</v>
@@ -3208,7 +3296,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G12" t="s">
         <v>90</v>
@@ -3219,7 +3307,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G13" t="s">
         <v>91</v>
@@ -3230,73 +3318,73 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G14" t="s">
         <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
         <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
         <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
         <v>99</v>
       </c>
       <c r="H17" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
         <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
         <v>92</v>
@@ -3307,7 +3395,7 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
         <v>96</v>
@@ -3318,7 +3406,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -3329,7 +3417,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
         <v>99</v>
@@ -3340,7 +3428,7 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
         <v>100</v>
@@ -3351,7 +3439,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G25" t="s">
         <v>101</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="7515" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7170" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="186">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -422,6 +422,21 @@
     <t>asgard-service.saga-task-instance.updateStatus</t>
   </si>
   <si>
+    <t>asgard-service.saga-task-instance-org.unlockById</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance-org.retry</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance-org.forceFailed</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance-org.unlockByInstance</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance-org.pagingQuery</t>
+  </si>
+  <si>
     <t>asgard-service.saga-instance-org.pagingQuery</t>
   </si>
   <si>
@@ -483,6 +498,21 @@
   </si>
   <si>
     <t>asgard-service.saga-instance-project.query</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance-proj.unlockById</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance-proj.forceFailed</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance-proj.unlockByInstance</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance-proj.pagingQuery</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance-proj.retry</t>
   </si>
   <si>
     <t>asgard-service.saga-instance-project.queryDetails</t>
@@ -579,18 +609,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -599,9 +621,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,15 +674,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,51 +685,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -706,8 +704,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,6 +733,21 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -736,7 +766,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,31 +874,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,133 +928,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,26 +954,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,26 +997,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,15 +1018,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,141 +1036,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1960,7 +1990,7 @@
   <dimension ref="D7:O26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2619,10 +2649,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G75"/>
+  <dimension ref="D7:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -2935,7 +2965,7 @@
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s">
         <v>138</v>
@@ -2943,7 +2973,7 @@
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s">
         <v>139</v>
@@ -2951,7 +2981,7 @@
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s">
         <v>140</v>
@@ -2959,7 +2989,7 @@
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s">
         <v>141</v>
@@ -2967,7 +2997,7 @@
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s">
         <v>142</v>
@@ -3031,7 +3061,7 @@
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s">
         <v>150</v>
@@ -3039,7 +3069,7 @@
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s">
         <v>151</v>
@@ -3047,55 +3077,55 @@
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="6:7">
       <c r="F58" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="6:7">
       <c r="F59" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="6:7">
       <c r="F60" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="6:7">
       <c r="F61" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="6:7">
       <c r="F62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G62" t="s">
         <v>157</v>
@@ -3103,7 +3133,7 @@
     </row>
     <row r="63" spans="6:7">
       <c r="F63" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G63" t="s">
         <v>158</v>
@@ -3111,7 +3141,7 @@
     </row>
     <row r="64" spans="6:7">
       <c r="F64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G64" t="s">
         <v>159</v>
@@ -3119,7 +3149,7 @@
     </row>
     <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G65" t="s">
         <v>160</v>
@@ -3127,7 +3157,7 @@
     </row>
     <row r="66" spans="6:7">
       <c r="F66" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G66" t="s">
         <v>161</v>
@@ -3135,7 +3165,7 @@
     </row>
     <row r="67" spans="6:7">
       <c r="F67" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G67" t="s">
         <v>162</v>
@@ -3143,7 +3173,7 @@
     </row>
     <row r="68" spans="6:7">
       <c r="F68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G68" t="s">
         <v>163</v>
@@ -3151,7 +3181,7 @@
     </row>
     <row r="69" spans="6:7">
       <c r="F69" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G69" t="s">
         <v>164</v>
@@ -3159,7 +3189,7 @@
     </row>
     <row r="70" spans="6:7">
       <c r="F70" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G70" t="s">
         <v>165</v>
@@ -3183,7 +3213,7 @@
     </row>
     <row r="73" spans="6:7">
       <c r="F73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G73" t="s">
         <v>168</v>
@@ -3191,7 +3221,7 @@
     </row>
     <row r="74" spans="6:7">
       <c r="F74" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G74" t="s">
         <v>169</v>
@@ -3199,10 +3229,90 @@
     </row>
     <row r="75" spans="6:7">
       <c r="F75" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7">
+      <c r="F76" t="s">
+        <v>99</v>
+      </c>
+      <c r="G76" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7">
+      <c r="F77" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7">
+      <c r="F78" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7">
+      <c r="F79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7">
+      <c r="F80" t="s">
+        <v>99</v>
+      </c>
+      <c r="G80" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7">
+      <c r="F81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G81" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7">
+      <c r="F82" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7">
+      <c r="F83" t="s">
+        <v>100</v>
+      </c>
+      <c r="G83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7">
+      <c r="F84" t="s">
         <v>101</v>
       </c>
-      <c r="G75" t="s">
-        <v>158</v>
+      <c r="G84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7">
+      <c r="F85" t="s">
+        <v>101</v>
+      </c>
+      <c r="G85" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3235,24 +3345,24 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G7" t="s">
         <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="6:8">
       <c r="F8" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G8" t="s">
         <v>81</v>
@@ -3263,7 +3373,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -3274,7 +3384,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
@@ -3285,7 +3395,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G11" t="s">
         <v>89</v>
@@ -3296,7 +3406,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G12" t="s">
         <v>90</v>
@@ -3307,7 +3417,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G13" t="s">
         <v>91</v>
@@ -3318,73 +3428,73 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G14" t="s">
         <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G15" t="s">
         <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
         <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G17" t="s">
         <v>99</v>
       </c>
       <c r="H17" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
         <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
         <v>92</v>
@@ -3395,7 +3505,7 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
         <v>96</v>
@@ -3406,7 +3516,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -3417,7 +3527,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
         <v>99</v>
@@ -3428,7 +3538,7 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
         <v>100</v>
@@ -3439,7 +3549,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
         <v>101</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/asgard-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA75EC4-9D7C-3444-A531-7013D0D18DDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22EC890-7B64-634B-A048-BCF7F7444569}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -202,9 +202,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>choerodon.code.organization.setting</t>
-  </si>
-  <si>
     <t>organization</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -266,6 +263,9 @@
   <si>
     <t>choerodon.route.statistics.saga</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
     </row>
     <row r="8" spans="4:14">
       <c r="F8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="10" spans="4:14">
       <c r="F10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -805,7 +805,7 @@
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="27.19921875" customWidth="1"/>
     <col min="10" max="10" width="18.59765625" customWidth="1"/>
-    <col min="11" max="11" width="32.19921875" customWidth="1"/>
+    <col min="11" max="11" width="61.796875" customWidth="1"/>
     <col min="12" max="12" width="19.19921875" customWidth="1"/>
     <col min="13" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
@@ -850,7 +850,7 @@
     </row>
     <row r="8" spans="4:15" ht="19">
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
         <v>55</v>
@@ -862,40 +862,42 @@
         <v>57</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" t="s">
         <v>58</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>59</v>
       </c>
-      <c r="M8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O8">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="4:15" ht="19">
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
         <v>57</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" t="s">
         <v>67</v>
-      </c>
-      <c r="L9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" t="s">
-        <v>68</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>32</v>
@@ -906,28 +908,28 @@
     </row>
     <row r="10" spans="4:15" ht="19">
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
         <v>57</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" t="s">
         <v>67</v>
-      </c>
-      <c r="L10" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" t="s">
-        <v>68</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>33</v>
@@ -938,7 +940,7 @@
     </row>
     <row r="11" spans="4:15" ht="19">
       <c r="F11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
         <v>55</v>
@@ -950,13 +952,16 @@
         <v>57</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
         <v>69</v>
       </c>
-      <c r="L11" t="s">
-        <v>70</v>
-      </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="O11">
         <v>60</v>
@@ -964,13 +969,13 @@
     </row>
     <row r="12" spans="4:15" ht="19">
       <c r="F12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -979,13 +984,13 @@
         <v>57</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>32</v>
@@ -996,13 +1001,13 @@
     </row>
     <row r="13" spans="4:15" ht="19">
       <c r="F13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -1011,13 +1016,13 @@
         <v>57</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>33</v>
